--- a/xmind/hadoop对比.xlsx
+++ b/xmind/hadoop对比.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hxheve\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hxheve\Desktop\python\3-xmind\xmind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C956186B-19D5-416D-AE1D-42BD8189E97B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E1A585-924D-4D22-BB64-739953E23750}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13350" yWindow="7995" windowWidth="20490" windowHeight="11385" xr2:uid="{27E0E41F-A0FB-49CB-849D-FA5C43B2909C}"/>
+    <workbookView xWindow="8310" yWindow="4215" windowWidth="20490" windowHeight="11385" xr2:uid="{27E0E41F-A0FB-49CB-849D-FA5C43B2909C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大数据实时查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>特点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,11 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据在hdfs、HQL语言、
-高延迟、不支持事务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>速度快、内存消耗大、
 shuffle入内存、采用线程、API丰富、</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +126,15 @@
   <si>
     <t>效率高、
 可以利用SQL语句或DataFrame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据在hdfs、HQL语言转成mapreduce任务执行、
+高延迟、不支持事务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据实时查询和写入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -216,22 +216,22 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,7 +550,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D5"/>
+      <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -601,10 +601,10 @@
       <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -623,28 +623,28 @@
         <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H4" s="9"/>
     </row>
@@ -655,24 +655,24 @@
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>23</v>
+      <c r="G5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:D5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
